--- a/game_data_final/Spandau 04 vs ZF Eger.xlsx
+++ b/game_data_final/Spandau 04 vs ZF Eger.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="78">
   <si>
     <t>Number of Passes</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>Kickout Position</t>
+  </si>
+  <si>
+    <t>End 3-3</t>
   </si>
   <si>
     <t>5m</t>
@@ -248,9 +251,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m-d"/>
-  </numFmts>
   <fonts count="5">
     <font>
       <sz val="10.0"/>
@@ -291,8 +291,8 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -401,14 +401,14 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2">
-        <v>43527.0</v>
+      <c r="W1" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
@@ -416,7 +416,7 @@
         <v>7.0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" s="4">
         <v>5.0</v>
@@ -431,7 +431,7 @@
         <v>0.0</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H2" s="4">
         <v>0.0</v>
@@ -440,10 +440,10 @@
         <v>0.0</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L2" s="4">
         <v>6.0</v>
@@ -452,13 +452,13 @@
         <v>0.0</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O2" s="4">
         <v>0.0</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q2" s="4">
         <v>0.0</v>
@@ -485,7 +485,7 @@
         <v>0.0</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -493,7 +493,7 @@
         <v>7.0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" s="4">
         <v>5.0</v>
@@ -508,7 +508,7 @@
         <v>0.0</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" s="4">
         <v>0.0</v>
@@ -517,10 +517,10 @@
         <v>0.0</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L3" s="4">
         <v>6.0</v>
@@ -529,13 +529,13 @@
         <v>0.0</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O3" s="4">
         <v>0.0</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q3" s="4">
         <v>0.0</v>
@@ -562,7 +562,7 @@
         <v>0.0</v>
       </c>
       <c r="Y3" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
@@ -570,7 +570,7 @@
         <v>9.0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" s="4">
         <v>2.0</v>
@@ -585,7 +585,7 @@
         <v>1.0</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" s="4">
         <v>1.0</v>
@@ -594,10 +594,10 @@
         <v>0.0</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L4" s="4">
         <v>4.0</v>
@@ -606,13 +606,13 @@
         <v>1.0</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O4" s="4">
         <v>0.0</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q4" s="4">
         <v>0.0</v>
@@ -639,7 +639,7 @@
         <v>0.0</v>
       </c>
       <c r="Y4" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
@@ -647,7 +647,7 @@
         <v>6.0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" s="4">
         <v>4.0</v>
@@ -662,7 +662,7 @@
         <v>0.0</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H5" s="4">
         <v>0.0</v>
@@ -671,10 +671,10 @@
         <v>0.0</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L5" s="4">
         <v>6.0</v>
@@ -683,13 +683,13 @@
         <v>0.0</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O5" s="4">
         <v>0.0</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q5" s="4">
         <v>0.0</v>
@@ -716,7 +716,7 @@
         <v>0.0</v>
       </c>
       <c r="Y5" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6">
@@ -724,7 +724,7 @@
         <v>2.0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="4">
         <v>4.0</v>
@@ -739,7 +739,7 @@
         <v>1.0</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="4">
         <v>1.0</v>
@@ -748,10 +748,10 @@
         <v>0.0</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L6" s="4">
         <v>6.0</v>
@@ -760,13 +760,13 @@
         <v>0.0</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O6" s="4">
         <v>0.0</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q6" s="4">
         <v>0.0</v>
@@ -793,7 +793,7 @@
         <v>0.0</v>
       </c>
       <c r="Y6" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7">
@@ -801,13 +801,13 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7" s="4">
         <v>0.0</v>
@@ -816,7 +816,7 @@
         <v>0.0</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H7" s="4">
         <v>0.0</v>
@@ -825,10 +825,10 @@
         <v>0.0</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L7" s="4">
         <v>3.0</v>
@@ -837,13 +837,13 @@
         <v>1.0</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O7" s="4">
         <v>0.0</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="4">
         <v>0.0</v>
@@ -870,7 +870,7 @@
         <v>0.0</v>
       </c>
       <c r="Y7" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
@@ -878,7 +878,7 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8" s="4">
         <v>5.0</v>
@@ -893,7 +893,7 @@
         <v>0.0</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H8" s="4">
         <v>1.0</v>
@@ -902,10 +902,10 @@
         <v>0.0</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L8" s="4">
         <v>6.0</v>
@@ -914,13 +914,13 @@
         <v>0.0</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O8" s="4">
         <v>0.0</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q8" s="4">
         <v>0.0</v>
@@ -947,7 +947,7 @@
         <v>0.0</v>
       </c>
       <c r="Y8" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
@@ -955,7 +955,7 @@
         <v>9.0</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" s="4">
         <v>4.0</v>
@@ -970,7 +970,7 @@
         <v>0.0</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H9" s="4">
         <v>0.0</v>
@@ -979,10 +979,10 @@
         <v>0.0</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L9" s="4">
         <v>4.0</v>
@@ -991,13 +991,13 @@
         <v>1.0</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O9" s="4">
         <v>0.0</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="4">
         <v>0.0</v>
@@ -1024,7 +1024,7 @@
         <v>0.0</v>
       </c>
       <c r="Y9" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
@@ -1032,7 +1032,7 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10" s="4">
         <v>1.0</v>
@@ -1047,7 +1047,7 @@
         <v>1.0</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H10" s="4">
         <v>1.0</v>
@@ -1056,10 +1056,10 @@
         <v>0.0</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L10" s="4">
         <v>5.0</v>
@@ -1068,13 +1068,13 @@
         <v>1.0</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O10" s="4">
         <v>1.0</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q10" s="4">
         <v>0.0</v>
@@ -1101,7 +1101,7 @@
         <v>0.0</v>
       </c>
       <c r="Y10" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11">
@@ -1109,7 +1109,7 @@
         <v>5.0</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C11" s="4">
         <v>1.0</v>
@@ -1124,7 +1124,7 @@
         <v>0.0</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H11" s="4">
         <v>1.0</v>
@@ -1133,10 +1133,10 @@
         <v>0.0</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L11" s="4">
         <v>5.0</v>
@@ -1145,13 +1145,13 @@
         <v>1.0</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O11" s="4">
         <v>0.0</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="4">
         <v>0.0</v>
@@ -1178,7 +1178,7 @@
         <v>0.0</v>
       </c>
       <c r="Y11" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
@@ -1186,7 +1186,7 @@
         <v>1.0</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C12" s="4">
         <v>1.0</v>
@@ -1201,7 +1201,7 @@
         <v>0.0</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H12" s="4">
         <v>0.0</v>
@@ -1210,10 +1210,10 @@
         <v>0.0</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L12" s="4">
         <v>6.0</v>
@@ -1222,13 +1222,13 @@
         <v>1.0</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O12" s="4">
         <v>0.0</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="4">
         <v>0.0</v>
@@ -1255,7 +1255,7 @@
         <v>0.0</v>
       </c>
       <c r="Y12" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
@@ -1263,7 +1263,7 @@
         <v>6.0</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C13" s="4">
         <v>3.0</v>
@@ -1278,7 +1278,7 @@
         <v>1.0</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H13" s="4">
         <v>0.0</v>
@@ -1287,10 +1287,10 @@
         <v>0.0</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L13" s="4">
         <v>1.0</v>
@@ -1299,13 +1299,13 @@
         <v>1.0</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O13" s="4">
         <v>0.0</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q13" s="4">
         <v>0.0</v>
@@ -1332,7 +1332,7 @@
         <v>0.0</v>
       </c>
       <c r="Y13" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14">
@@ -1340,7 +1340,7 @@
         <v>7.0</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C14" s="4">
         <v>4.0</v>
@@ -1355,7 +1355,7 @@
         <v>1.0</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H14" s="4">
         <v>1.0</v>
@@ -1364,10 +1364,10 @@
         <v>0.0</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L14" s="4">
         <v>6.0</v>
@@ -1376,13 +1376,13 @@
         <v>1.0</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O14" s="4">
         <v>0.0</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q14" s="4">
         <v>0.0</v>
@@ -1409,7 +1409,7 @@
         <v>0.0</v>
       </c>
       <c r="Y14" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
@@ -1417,13 +1417,13 @@
         <v>6.0</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E15" s="4">
         <v>0.0</v>
@@ -1432,7 +1432,7 @@
         <v>0.0</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H15" s="4">
         <v>0.0</v>
@@ -1441,25 +1441,25 @@
         <v>0.0</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="4">
         <v>0.0</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="4">
         <v>0.0</v>
@@ -1486,7 +1486,7 @@
         <v>0.0</v>
       </c>
       <c r="Y15" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
@@ -1494,7 +1494,7 @@
         <v>7.0</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C16" s="4">
         <v>3.0</v>
@@ -1509,7 +1509,7 @@
         <v>1.0</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H16" s="4">
         <v>0.0</v>
@@ -1518,10 +1518,10 @@
         <v>0.0</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L16" s="4">
         <v>4.0</v>
@@ -1530,13 +1530,13 @@
         <v>1.0</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O16" s="4">
         <v>0.0</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q16" s="4">
         <v>0.0</v>
@@ -1563,7 +1563,7 @@
         <v>0.0</v>
       </c>
       <c r="Y16" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
@@ -1571,7 +1571,7 @@
         <v>5.0</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C17" s="4">
         <v>2.0</v>
@@ -1586,7 +1586,7 @@
         <v>1.0</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H17" s="4">
         <v>0.0</v>
@@ -1595,10 +1595,10 @@
         <v>0.0</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L17" s="4">
         <v>5.0</v>
@@ -1607,10 +1607,10 @@
         <v>0.0</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q17" s="4">
         <v>0.0</v>
@@ -1637,7 +1637,7 @@
         <v>0.0</v>
       </c>
       <c r="Y17" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
